--- a/xlsx/社會學家_intext.xlsx
+++ b/xlsx/社會學家_intext.xlsx
@@ -29,7 +29,7 @@
     <t>社会学理论</t>
   </si>
   <si>
-    <t>政策_政策_政治_社會學家</t>
+    <t>体育运动_体育运动_规则_社會學家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
